--- a/Creat3D/Evaluaciones/Evaluaciones.xlsx
+++ b/Creat3D/Evaluaciones/Evaluaciones.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Documents\GitHub\Proyecto_Creat3d\Creat3D\Evaluaciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Agustin Marino</t>
   </si>
@@ -26,67 +34,191 @@
   </si>
   <si>
     <t>Fabricio Salgueiro</t>
+  </si>
+  <si>
+    <t>Evaluaciones de Desempeño</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -276,48 +408,131 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14">
+        <v>45098</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Creat3D/Evaluaciones/Evaluaciones.xlsx
+++ b/Creat3D/Evaluaciones/Evaluaciones.xlsx
@@ -181,12 +181,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -197,6 +191,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -434,10 +434,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -445,30 +445,30 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>45098</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>-1</v>
       </c>
       <c r="D3" s="1"/>
@@ -476,47 +476,47 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>-1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>-1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>1</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Creat3D/Evaluaciones/Evaluaciones.xlsx
+++ b/Creat3D/Evaluaciones/Evaluaciones.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -90,6 +90,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +181,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -197,6 +205,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -421,7 +430,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -512,10 +521,10 @@
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
     </row>

--- a/Creat3D/Evaluaciones/Evaluaciones.xlsx
+++ b/Creat3D/Evaluaciones/Evaluaciones.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,6 +98,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,16 +189,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,13 +205,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -430,7 +437,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -443,88 +450,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>45098</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="D2" s="10">
+        <v>45105</v>
+      </c>
+      <c r="E2" s="10">
+        <v>45112</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45119</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-1</v>
-      </c>
+      <c r="B5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1</v>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
     </row>
